--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_22.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>748920.5718760432</v>
+        <v>798755.2361520951</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.934248445</v>
+        <v>492028.9342484449</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7522432.750575608</v>
+        <v>7535059.01411253</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>204.7056957762897</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>57.73747503614025</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -820,19 +820,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -868,22 +868,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>244.2985271225276</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>44.22580856786348</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +896,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>329.9041245198143</v>
+        <v>421.7000409426932</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
@@ -908,13 +908,13 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -1066,10 +1066,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>18.87671737567384</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1114,13 +1114,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>55.02201224290846</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>373.5472971308413</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>55.57571903868823</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>54.49360828358916</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1357,7 +1357,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>410.6555217015904</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>163.9521757218096</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1388,7 +1388,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225751</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1619,10 +1619,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>129.3727203283471</v>
       </c>
       <c r="H14" t="n">
-        <v>274.8577999327475</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1661,7 +1661,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>50.30825486907133</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1777,7 +1777,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170487</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,13 +1895,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>309.2588241657128</v>
+        <v>90.97964783088969</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -2011,16 +2011,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>84.71997427496019</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170543</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2081,10 +2081,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>422.3799950099427</v>
       </c>
       <c r="D20" t="n">
-        <v>246.7675307998105</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -2099,7 +2099,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2248,16 +2248,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>60.94899222869601</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>54.49360828358961</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2296,7 +2296,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2485,16 +2485,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>18.0567773522574</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>31.28831241118253</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2713,7 +2713,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>31.24391673888151</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2770,7 +2770,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>54.66258501924924</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2950,7 +2950,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>27.18442331492898</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -2965,10 +2965,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3190,7 +3190,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>24.62703520776672</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3202,7 +3202,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
@@ -3241,13 +3241,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>245.6558377980605</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -3329,7 +3329,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864838</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3436,13 +3436,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>24.34318456170527</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>236.1257352421986</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3670,16 +3670,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480023178</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>30.805497573775</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3806,7 +3806,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633445</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3913,10 +3913,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>82.62483121292139</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,16 +3949,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>166.3197703738373</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
@@ -4138,7 +4138,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4147,13 +4147,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>119.9348501475785</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225797</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>180.3445749570171</v>
+        <v>1378.118739920744</v>
       </c>
       <c r="C2" t="n">
-        <v>146.2425061808444</v>
+        <v>939.9762671041672</v>
       </c>
       <c r="D2" t="n">
-        <v>87.92182432615731</v>
+        <v>908.1068863190158</v>
       </c>
       <c r="E2" t="n">
-        <v>58.18748352485655</v>
+        <v>878.372545517715</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>450.5051159269228</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>656.8099308587472</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>656.8099308587472</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>656.8099308587472</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>656.8099308587472</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1132.008730489123</v>
       </c>
       <c r="P2" t="n">
-        <v>1277.130531135514</v>
+        <v>1739.711376797683</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>2286.210162756278</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509335</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>2371.712353693172</v>
       </c>
       <c r="T2" t="n">
-        <v>1393.464329137293</v>
+        <v>2371.712353693172</v>
       </c>
       <c r="U2" t="n">
-        <v>1393.464329137293</v>
+        <v>2371.712353693172</v>
       </c>
       <c r="V2" t="n">
-        <v>1030.847379071119</v>
+        <v>2009.095403626999</v>
       </c>
       <c r="W2" t="n">
-        <v>625.9919244821526</v>
+        <v>2008.280353078436</v>
       </c>
       <c r="X2" t="n">
-        <v>206.8494610614633</v>
+        <v>1993.178293698151</v>
       </c>
       <c r="Y2" t="n">
-        <v>202.6037414015208</v>
+        <v>1584.892169997804</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414795</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>448.8225683781218</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246751</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516288</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677904</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>90.84293673397423</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.1709577106443</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768566</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1007.431928985417</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1007.431928985417</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1007.431928985417</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1007.431928985417</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1007.431928985417</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.936145603142</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.0687098420219</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212427</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>807.2216621053868</v>
+        <v>785.867116149652</v>
       </c>
       <c r="C4" t="n">
-        <v>634.6599505886118</v>
+        <v>613.305404632877</v>
       </c>
       <c r="D4" t="n">
-        <v>634.6599505886118</v>
+        <v>447.4274118343996</v>
       </c>
       <c r="E4" t="n">
-        <v>464.9019468393491</v>
+        <v>277.6694080851369</v>
       </c>
       <c r="F4" t="n">
-        <v>288.1948928011053</v>
+        <v>277.6694080851369</v>
       </c>
       <c r="G4" t="n">
-        <v>122.603617826933</v>
+        <v>277.6694080851369</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>137.7672337755114</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>323.8657391213223</v>
       </c>
       <c r="L4" t="n">
-        <v>437.4083829648294</v>
+        <v>618.252639110322</v>
       </c>
       <c r="M4" t="n">
-        <v>857.4612819097326</v>
+        <v>1077.736506291235</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>1519.995309448879</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>1939.664558674661</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2287.171452645003</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509335</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2433.946406214707</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>2274.705037512704</v>
       </c>
       <c r="T4" t="n">
-        <v>1516.524240083786</v>
+        <v>2028.825591091159</v>
       </c>
       <c r="U4" t="n">
-        <v>1516.524240083786</v>
+        <v>1782.059402078505</v>
       </c>
       <c r="V4" t="n">
-        <v>1516.524240083786</v>
+        <v>1495.103893948935</v>
       </c>
       <c r="W4" t="n">
-        <v>1471.851706176853</v>
+        <v>1223.077489535227</v>
       </c>
       <c r="X4" t="n">
-        <v>1226.459951510266</v>
+        <v>977.6857348686392</v>
       </c>
       <c r="Y4" t="n">
-        <v>999.0402808243739</v>
+        <v>977.6857348686392</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1250.721030006719</v>
+        <v>565.2083903541807</v>
       </c>
       <c r="C5" t="n">
-        <v>917.4845405927651</v>
+        <v>139.2487530383289</v>
       </c>
       <c r="D5" t="n">
-        <v>488.9028663300335</v>
+        <v>107.3793722531775</v>
       </c>
       <c r="E5" t="n">
-        <v>459.1685255287327</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F5" t="n">
-        <v>435.3414999783445</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="O5" t="n">
-        <v>1294.102365436318</v>
+        <v>2009.22077188965</v>
       </c>
       <c r="P5" t="n">
-        <v>1294.102365436318</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2223.792002549091</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1818.936547960124</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1399.794084539435</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>991.5079608390885</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>705.2562847857771</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C7" t="n">
-        <v>705.2562847857771</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D7" t="n">
-        <v>539.3782919872998</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E7" t="n">
-        <v>369.6202882380371</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F7" t="n">
-        <v>192.9132341997933</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>120.5233537662982</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V7" t="n">
-        <v>705.2562847857771</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W7" t="n">
-        <v>705.2562847857771</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X7" t="n">
-        <v>705.2562847857771</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y7" t="n">
-        <v>705.2562847857771</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>584.0535647711304</v>
+        <v>2139.946552541567</v>
       </c>
       <c r="C8" t="n">
-        <v>145.9110919545537</v>
+        <v>1701.80407972499</v>
       </c>
       <c r="D8" t="n">
-        <v>90.3333018102017</v>
+        <v>1265.894294899434</v>
       </c>
       <c r="E8" t="n">
-        <v>60.59896100890094</v>
+        <v>832.1195500577296</v>
       </c>
       <c r="F8" t="n">
-        <v>36.77193545851274</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>36.77193545851274</v>
+        <v>518.3865980530361</v>
       </c>
       <c r="L8" t="n">
-        <v>304.2846042752947</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="M8" t="n">
-        <v>304.2846042752947</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="N8" t="n">
-        <v>304.2846042752947</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="O8" t="n">
-        <v>759.3373055743897</v>
+        <v>1840.066707136593</v>
       </c>
       <c r="P8" t="n">
-        <v>1214.390006873485</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="Q8" t="n">
-        <v>1669.44270817258</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925637</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1838.596772925637</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>1838.596772925637</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.596772925637</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.781722377074</v>
+        <v>2585.593902066702</v>
       </c>
       <c r="X8" t="n">
-        <v>1418.639258956385</v>
+        <v>2166.451438646013</v>
       </c>
       <c r="Y8" t="n">
-        <v>1010.353135256038</v>
+        <v>2162.20571898607</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498055</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864478</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.396930433001</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599547</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761164</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230027</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897033</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851827</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>842.4466348842776</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>842.4466348842776</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>842.4466348842776</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>842.4466348842776</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1127.786217543887</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543887</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.7333607503479</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295686</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>575.1309149722449</v>
+        <v>867.0923738769416</v>
       </c>
       <c r="C10" t="n">
-        <v>402.5692034554698</v>
+        <v>694.5306623601665</v>
       </c>
       <c r="D10" t="n">
-        <v>346.4321135174009</v>
+        <v>528.6526695616892</v>
       </c>
       <c r="E10" t="n">
-        <v>176.6741097681382</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="F10" t="n">
-        <v>176.6741097681382</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G10" t="n">
-        <v>176.6741097681382</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>123.3516206232026</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>398.1100751943382</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>816.3199569622992</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1071.420629729514</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1071.420629729514</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1491.089878955295</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1838.596772925637</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1817.178951631009</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1657.937582929005</v>
+        <v>2615.016777660126</v>
       </c>
       <c r="T10" t="n">
-        <v>1657.937582929005</v>
+        <v>2369.137331238581</v>
       </c>
       <c r="U10" t="n">
-        <v>1379.50458218211</v>
+        <v>2090.704330491686</v>
       </c>
       <c r="V10" t="n">
-        <v>1092.549074052541</v>
+        <v>1803.748822362116</v>
       </c>
       <c r="W10" t="n">
-        <v>820.5226696388324</v>
+        <v>1531.722417948408</v>
       </c>
       <c r="X10" t="n">
-        <v>575.1309149722449</v>
+        <v>1286.330663281821</v>
       </c>
       <c r="Y10" t="n">
-        <v>575.1309149722449</v>
+        <v>1058.910992595929</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2523.375184062124</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C11" t="n">
-        <v>2085.232711245548</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.322926419992</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.548181578287</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F11" t="n">
-        <v>787.6807519874951</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G11" t="n">
-        <v>386.2829206107589</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397517</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I11" t="n">
         <v>96.73597668111518</v>
@@ -5048,13 +5048,13 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M11" t="n">
-        <v>2441.40092234507</v>
+        <v>3292.836108510712</v>
       </c>
       <c r="N11" t="n">
-        <v>2441.40092234507</v>
+        <v>3292.836108510712</v>
       </c>
       <c r="O11" t="n">
-        <v>3421.580588915377</v>
+        <v>3292.836108510712</v>
       </c>
       <c r="P11" t="n">
         <v>4121.145983344108</v>
@@ -5072,19 +5072,19 @@
         <v>4533.079733112634</v>
       </c>
       <c r="U11" t="n">
-        <v>4533.079733112634</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V11" t="n">
-        <v>4170.462783046461</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W11" t="n">
-        <v>3765.607328457494</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X11" t="n">
-        <v>3346.464865036805</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y11" t="n">
-        <v>2938.178741336458</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="12">
@@ -5124,16 +5124,16 @@
         <v>447.3579748077851</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P12" t="n">
         <v>1102.064021433509</v>
@@ -5182,13 +5182,13 @@
         <v>608.792309442794</v>
       </c>
       <c r="E13" t="n">
-        <v>439.0343056935313</v>
+        <v>439.0343056935312</v>
       </c>
       <c r="F13" t="n">
         <v>262.3272516552875</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111506</v>
       </c>
       <c r="H13" t="n">
         <v>96.73597668111518</v>
@@ -5227,10 +5227,10 @@
         <v>2695.15641754123</v>
       </c>
       <c r="T13" t="n">
-        <v>2449.276971119685</v>
+        <v>2449.276971119686</v>
       </c>
       <c r="U13" t="n">
-        <v>2170.84397037279</v>
+        <v>2170.843970372791</v>
       </c>
       <c r="V13" t="n">
         <v>1883.888462243221</v>
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2511.87917085155</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C14" t="n">
-        <v>2073.736698034974</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D14" t="n">
-        <v>1637.826913209418</v>
+        <v>1378.604610526435</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.052168367713</v>
+        <v>944.8298656847301</v>
       </c>
       <c r="F14" t="n">
-        <v>776.1847387769212</v>
+        <v>516.9624360939379</v>
       </c>
       <c r="G14" t="n">
-        <v>374.7869074001846</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H14" t="n">
         <v>97.15276605397517</v>
@@ -5285,19 +5285,19 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M14" t="n">
-        <v>2859.155227899</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N14" t="n">
-        <v>2859.155227899</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O14" t="n">
-        <v>3839.334894469307</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P14" t="n">
-        <v>4667.644769302702</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302702</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R14" t="n">
         <v>4836.798834055759</v>
@@ -5309,19 +5309,19 @@
         <v>4533.079733112634</v>
       </c>
       <c r="U14" t="n">
-        <v>4533.079733112634</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V14" t="n">
-        <v>4170.462783046461</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W14" t="n">
-        <v>3765.607328457494</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X14" t="n">
-        <v>3346.464865036805</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y14" t="n">
-        <v>2938.178741336458</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="15">
@@ -5361,16 +5361,16 @@
         <v>447.3579748077851</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>947.2320137580465</v>
+        <v>806.2298140987275</v>
       </c>
       <c r="C16" t="n">
-        <v>774.6703022412714</v>
+        <v>633.6681025819524</v>
       </c>
       <c r="D16" t="n">
-        <v>608.7923094427941</v>
+        <v>467.7901097834751</v>
       </c>
       <c r="E16" t="n">
-        <v>439.0343056935314</v>
+        <v>298.0321060342124</v>
       </c>
       <c r="F16" t="n">
-        <v>262.3272516552876</v>
+        <v>121.3250519959686</v>
       </c>
       <c r="G16" t="n">
-        <v>96.73597668111523</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H16" t="n">
         <v>96.73597668111518</v>
@@ -5458,16 +5458,16 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583914</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S16" t="n">
         <v>2554.154217881911</v>
       </c>
       <c r="T16" t="n">
-        <v>2308.274771460366</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U16" t="n">
-        <v>2029.841770713471</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V16" t="n">
         <v>1742.886262583902</v>
@@ -5479,7 +5479,7 @@
         <v>1225.468103503606</v>
       </c>
       <c r="Y16" t="n">
-        <v>998.0484328177145</v>
+        <v>998.0484328177147</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2522.958394689265</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C17" t="n">
-        <v>2084.815921872688</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D17" t="n">
-        <v>1648.906137047132</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E17" t="n">
-        <v>1215.131392205427</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F17" t="n">
-        <v>787.263962614635</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G17" t="n">
-        <v>385.8661312378989</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H17" t="n">
-        <v>96.73597668111518</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I17" t="n">
         <v>96.73597668111518</v>
@@ -5528,13 +5528,13 @@
         <v>2441.40092234507</v>
       </c>
       <c r="O17" t="n">
-        <v>3292.836108510712</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P17" t="n">
-        <v>4121.145983344108</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q17" t="n">
-        <v>4667.644769302702</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R17" t="n">
         <v>4836.798834055759</v>
@@ -5543,22 +5543,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T17" t="n">
-        <v>4753.146960239596</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U17" t="n">
-        <v>4493.924657556612</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V17" t="n">
-        <v>4181.542006884175</v>
+        <v>4181.958796257035</v>
       </c>
       <c r="W17" t="n">
-        <v>3776.686552295208</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X17" t="n">
-        <v>3357.544088874519</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y17" t="n">
-        <v>2949.257965174173</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="18">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1084.662814845622</v>
+        <v>806.2298140987281</v>
       </c>
       <c r="C19" t="n">
-        <v>912.1011033288465</v>
+        <v>633.668102581953</v>
       </c>
       <c r="D19" t="n">
-        <v>746.2231105303692</v>
+        <v>467.7901097834757</v>
       </c>
       <c r="E19" t="n">
-        <v>576.4651067811066</v>
+        <v>298.032106034213</v>
       </c>
       <c r="F19" t="n">
-        <v>490.8893751902377</v>
+        <v>121.3250519959692</v>
       </c>
       <c r="G19" t="n">
-        <v>325.2981002160653</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H19" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I19" t="n">
         <v>96.73597668111518</v>
@@ -5695,28 +5695,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R19" t="n">
-        <v>2713.395586583914</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S19" t="n">
         <v>2554.154217881911</v>
       </c>
       <c r="T19" t="n">
-        <v>2308.274771460366</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U19" t="n">
-        <v>2308.274771460366</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V19" t="n">
-        <v>2021.319263330797</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W19" t="n">
-        <v>1749.292858917088</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X19" t="n">
-        <v>1503.901104250501</v>
+        <v>1225.468103503607</v>
       </c>
       <c r="Y19" t="n">
-        <v>1276.481433564609</v>
+        <v>998.0484328177151</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2336.30874198473</v>
+        <v>2511.87917085155</v>
       </c>
       <c r="C20" t="n">
-        <v>1898.166269168154</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D20" t="n">
-        <v>1648.906137047133</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E20" t="n">
-        <v>1215.131392205427</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F20" t="n">
-        <v>787.2639626146351</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G20" t="n">
-        <v>385.866131237899</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H20" t="n">
-        <v>96.73597668111518</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I20" t="n">
         <v>96.73597668111518</v>
@@ -5756,16 +5756,16 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L20" t="n">
-        <v>2312.656441940405</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M20" t="n">
-        <v>2312.656441940405</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N20" t="n">
-        <v>2312.656441940405</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O20" t="n">
-        <v>3292.836108510712</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P20" t="n">
         <v>4121.145983344108</v>
@@ -5777,25 +5777,25 @@
         <v>4836.798834055759</v>
       </c>
       <c r="S20" t="n">
-        <v>4836.798834055759</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T20" t="n">
-        <v>4616.731606928797</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U20" t="n">
-        <v>4357.509304245814</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="V20" t="n">
-        <v>3994.89235417964</v>
+        <v>4170.462783046461</v>
       </c>
       <c r="W20" t="n">
-        <v>3590.036899590674</v>
+        <v>3765.607328457494</v>
       </c>
       <c r="X20" t="n">
-        <v>3170.894436169985</v>
+        <v>3346.464865036805</v>
       </c>
       <c r="Y20" t="n">
-        <v>2762.608312469638</v>
+        <v>2938.178741336458</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>910.4271340294281</v>
+        <v>1071.767500933669</v>
       </c>
       <c r="C22" t="n">
-        <v>737.865422512653</v>
+        <v>899.2057894168937</v>
       </c>
       <c r="D22" t="n">
-        <v>571.9874297141757</v>
+        <v>733.3277966184164</v>
       </c>
       <c r="E22" t="n">
-        <v>402.229425964913</v>
+        <v>563.5697928691536</v>
       </c>
       <c r="F22" t="n">
-        <v>402.229425964913</v>
+        <v>386.8627388309098</v>
       </c>
       <c r="G22" t="n">
-        <v>236.6381509907407</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H22" t="n">
-        <v>96.73597668111518</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I22" t="n">
         <v>96.73597668111518</v>
@@ -5932,28 +5932,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R22" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="S22" t="n">
-        <v>2658.351537812612</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T22" t="n">
-        <v>2412.472091391067</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U22" t="n">
-        <v>2134.039090644172</v>
+        <v>2008.423949418843</v>
       </c>
       <c r="V22" t="n">
-        <v>1847.083582514603</v>
+        <v>2008.423949418843</v>
       </c>
       <c r="W22" t="n">
-        <v>1575.057178100894</v>
+        <v>1736.397545005135</v>
       </c>
       <c r="X22" t="n">
-        <v>1329.665423434307</v>
+        <v>1491.005790338547</v>
       </c>
       <c r="Y22" t="n">
-        <v>1102.245752748415</v>
+        <v>1263.586119652656</v>
       </c>
     </row>
     <row r="23">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>1004.611946844417</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>832.0502353276421</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2506.656904206056</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2228.223903459162</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1941.268395329592</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1669.241990915884</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1423.850236249296</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1196.430565563404</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6306,22 +6306,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1466.684448215751</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1466.684448215751</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
         <v>1648.327823655249</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>811.7546776883918</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674087</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878952</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2697.502628878952</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2451.623182457407</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2173.190181710512</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173567</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759858</v>
+        <v>1845.949044954128</v>
       </c>
       <c r="X28" t="n">
-        <v>1230.992967093271</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y28" t="n">
-        <v>1003.573296407379</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="29">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>1036.216302815309</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674087</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6625,7 +6625,7 @@
         <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>881.8088617745661</v>
+        <v>881.808861774566</v>
       </c>
       <c r="M31" t="n">
         <v>1341.292728955479</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2259.828259430053</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832885</v>
+        <v>1972.872751300484</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1700.846346886775</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1455.454592220188</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1228.034921534296</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>811.7546776883917</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C34" t="n">
-        <v>639.1929661716167</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2035.366634303136</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.411126173567</v>
+        <v>2005.426305625833</v>
       </c>
       <c r="W34" t="n">
-        <v>1476.384721759858</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X34" t="n">
-        <v>1230.992967093271</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y34" t="n">
-        <v>1003.573296407379</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="35">
@@ -6917,19 +6917,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6944,34 +6944,34 @@
         <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532228</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968675</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.042013538981</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.042013538981</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
@@ -6980,7 +6980,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>811.7546776883923</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>639.1929661716173</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>473.3149733731399</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>303.5569696238772</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>126.8499155856334</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2451.623182457407</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303136</v>
+        <v>2213.112338778418</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.411126173567</v>
+        <v>1926.156830648849</v>
       </c>
       <c r="W37" t="n">
-        <v>1476.384721759858</v>
+        <v>1654.13042623514</v>
       </c>
       <c r="X37" t="n">
-        <v>1230.992967093271</v>
+        <v>1408.738671568553</v>
       </c>
       <c r="Y37" t="n">
-        <v>1003.57329640738</v>
+        <v>1181.319000882661</v>
       </c>
     </row>
     <row r="38">
@@ -7160,13 +7160,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7181,43 +7181,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1004.611946844417</v>
+        <v>790.336856393764</v>
       </c>
       <c r="C40" t="n">
-        <v>832.0502353276421</v>
+        <v>617.775144876989</v>
       </c>
       <c r="D40" t="n">
-        <v>666.1722425291648</v>
+        <v>451.8971520785116</v>
       </c>
       <c r="E40" t="n">
-        <v>496.4142387799021</v>
+        <v>282.1391483292489</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>105.4320942910051</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7366,16 +7366,16 @@
         <v>2013.948813008508</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W40" t="n">
         <v>1454.96690046523</v>
       </c>
       <c r="X40" t="n">
-        <v>1423.850236249296</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y40" t="n">
-        <v>1196.430565563404</v>
+        <v>982.1554751127512</v>
       </c>
     </row>
     <row r="41">
@@ -7412,22 +7412,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K41" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L41" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M41" t="n">
-        <v>2758.053686176684</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N41" t="n">
-        <v>2758.053686176684</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O41" t="n">
-        <v>3738.23335274699</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P41" t="n">
-        <v>4566.543227580387</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q41" t="n">
         <v>5113.042013538981</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1181.319000882661</v>
+        <v>1036.216302815308</v>
       </c>
       <c r="C43" t="n">
-        <v>1008.757289365886</v>
+        <v>863.6545912985333</v>
       </c>
       <c r="D43" t="n">
-        <v>842.8792965674086</v>
+        <v>697.776598500056</v>
       </c>
       <c r="E43" t="n">
-        <v>673.1212928181459</v>
+        <v>528.0185947507932</v>
       </c>
       <c r="F43" t="n">
-        <v>496.4142387799021</v>
+        <v>351.3115407125495</v>
       </c>
       <c r="G43" t="n">
-        <v>330.8229638057298</v>
+        <v>185.720265738377</v>
       </c>
       <c r="H43" t="n">
-        <v>190.9207894961043</v>
+        <v>185.720265738377</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7594,25 +7594,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2538.261260176948</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T43" t="n">
-        <v>2292.381813755403</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="U43" t="n">
-        <v>2013.948813008508</v>
+        <v>2259.828259430053</v>
       </c>
       <c r="V43" t="n">
-        <v>2013.948813008508</v>
+        <v>1972.872751300483</v>
       </c>
       <c r="W43" t="n">
-        <v>1845.949044954127</v>
+        <v>1700.846346886775</v>
       </c>
       <c r="X43" t="n">
-        <v>1600.55729028754</v>
+        <v>1455.454592220187</v>
       </c>
       <c r="Y43" t="n">
-        <v>1373.137619601648</v>
+        <v>1228.034921534296</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
         <v>1654.847790009657</v>
@@ -7634,10 +7634,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771596</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004235</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
         <v>102.6776296436396</v>
@@ -7652,22 +7652,22 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M44" t="n">
-        <v>3304.552472135279</v>
+        <v>2528.913654892426</v>
       </c>
       <c r="N44" t="n">
-        <v>3304.552472135279</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>4284.732138705585</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
         <v>5113.042013538981</v>
@@ -7688,7 +7688,7 @@
         <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
         <v>2955.199618136697</v>
@@ -7780,49 +7780,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>970.9960463903939</v>
+        <v>970.9960463903957</v>
       </c>
       <c r="C46" t="n">
-        <v>798.4343348736188</v>
+        <v>798.4343348736206</v>
       </c>
       <c r="D46" t="n">
-        <v>798.4343348736188</v>
+        <v>632.5563420751432</v>
       </c>
       <c r="E46" t="n">
-        <v>628.676331124356</v>
+        <v>462.7983383258805</v>
       </c>
       <c r="F46" t="n">
-        <v>451.9692770861122</v>
+        <v>286.0912842876368</v>
       </c>
       <c r="G46" t="n">
-        <v>330.8229638057299</v>
+        <v>120.5000093134644</v>
       </c>
       <c r="H46" t="n">
-        <v>190.9207894961044</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>188.8405254354694</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>463.5989800066049</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L46" t="n">
-        <v>881.808861774566</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
         <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1783.551532113123</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
         <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2550.727675309246</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
         <v>2718.920450173579</v>
@@ -7834,22 +7834,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="T46" t="n">
-        <v>2473.041003752034</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U46" t="n">
-        <v>2194.608003005139</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V46" t="n">
-        <v>1907.652494875569</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W46" t="n">
-        <v>1635.626090461861</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X46" t="n">
-        <v>1390.234335795273</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y46" t="n">
-        <v>1162.814665109381</v>
+        <v>1162.814665109383</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,16 +7991,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>479.9987875054302</v>
       </c>
       <c r="P2" t="n">
-        <v>407.1525905495951</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>47.47818213854885</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,25 +8137,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>297.3605050393936</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>640.5448952297621</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,25 +8374,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>320.0858880793245</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,10 +8453,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>469.6822035600077</v>
       </c>
       <c r="L8" t="n">
-        <v>270.2148169866484</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314092</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314092</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314093</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,7 +8532,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314091</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>288.2218006662717</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314093</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8617,10 +8617,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>257.6774472396105</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8696,16 +8696,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>860.0355415814561</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>706.631711544173</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8772,19 +8772,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8933,7 +8933,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>421.9740460140706</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8945,10 +8945,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,19 +9009,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>860.0355415814561</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>955.8742281294894</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>706.631711544173</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,13 +9966,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>183.4781570095934</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10592,19 +10592,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1005.515419242839</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10829,10 +10829,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11060,25 +11060,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>753.9218057523913</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11300,13 +11300,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>866.2895820207518</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>60.59188538505214</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11315,10 +11315,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11.38105307846826</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>267.5985112554903</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627258</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23507,10 +23507,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>268.0111327346217</v>
       </c>
       <c r="H14" t="n">
-        <v>11.38105307846837</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.5921776627257</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23783,13 +23783,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>49.73195639979895</v>
+        <v>268.011132734622</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>90.22000922290114</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>139.5921776627252</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23969,10 +23969,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>11.38105307846821</v>
       </c>
       <c r="D20" t="n">
-        <v>184.7831561774894</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,13 +24017,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>102.9863699957346</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>103.1553467313937</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>212.1323395461467</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>229.4233680290246</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>143.6516710866783</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,13 +25129,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>23.65030257151088</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>39.52293549722712</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>160.7958207444074</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>212.1323395461467</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>5.148518520150023</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,16 +25837,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>102.986369995734</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>44.00051207685209</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>120.4463752142713</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>655641.0770591926</v>
+        <v>659528.7831198674</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>655641.0770591926</v>
+        <v>660629.6778822595</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>656366.1989719395</v>
+        <v>660629.6778822595</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>632418.0816049707</v>
+        <v>632418.0816049709</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>632418.0816049706</v>
+        <v>632418.0816049709</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>659106.8473242429</v>
+        <v>659106.847324243</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>659106.8473242429</v>
+        <v>659106.847324243</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>659106.8473242428</v>
+        <v>659106.8473242429</v>
       </c>
     </row>
   </sheetData>
@@ -26329,7 +26329,7 @@
         <v>278038.143884422</v>
       </c>
       <c r="H2" t="n">
-        <v>278038.143884422</v>
+        <v>278038.1438844221</v>
       </c>
       <c r="I2" t="n">
         <v>289771.6712755438</v>
@@ -26338,7 +26338,7 @@
         <v>289771.6712755437</v>
       </c>
       <c r="K2" t="n">
-        <v>289771.6712755437</v>
+        <v>289771.6712755438</v>
       </c>
       <c r="L2" t="n">
         <v>289771.6712755437</v>
@@ -26347,13 +26347,13 @@
         <v>289771.6712755437</v>
       </c>
       <c r="N2" t="n">
-        <v>289771.6712755437</v>
+        <v>289771.6712755438</v>
       </c>
       <c r="O2" t="n">
         <v>289771.6712755438</v>
       </c>
       <c r="P2" t="n">
-        <v>289771.6712755437</v>
+        <v>289771.6712755438</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039027</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390683</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200262</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520274</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>18364.71563283952</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856131</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784528</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088509851</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104677</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181432.3864604621</v>
+        <v>141940.3832228852</v>
       </c>
       <c r="C4" t="n">
-        <v>181432.3864604621</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="D4" t="n">
-        <v>174066.4702932124</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
         <v>26563.08616012788</v>
@@ -26448,13 +26448,13 @@
         <v>27684.07875020268</v>
       </c>
       <c r="M4" t="n">
-        <v>27684.07875020262</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="N4" t="n">
         <v>27684.07875020268</v>
       </c>
       <c r="O4" t="n">
-        <v>27684.07875020262</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="P4" t="n">
         <v>27684.07875020268</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814189</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846968</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
         <v>73519.34227764752</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-88167.44931766979</v>
+        <v>-123720.7500452052</v>
       </c>
       <c r="C6" t="n">
-        <v>54023.85134204012</v>
+        <v>72570.65677204025</v>
       </c>
       <c r="D6" t="n">
-        <v>48258.47802604007</v>
+        <v>89911.20114594708</v>
       </c>
       <c r="E6" t="n">
-        <v>-45843.57830538077</v>
+        <v>16144.08168173534</v>
       </c>
       <c r="F6" t="n">
-        <v>177955.7154466466</v>
+        <v>177879.1568918497</v>
       </c>
       <c r="G6" t="n">
-        <v>177955.7154466466</v>
+        <v>177879.1568918498</v>
       </c>
       <c r="H6" t="n">
-        <v>177955.7154466466</v>
+        <v>177879.1568918499</v>
       </c>
       <c r="I6" t="n">
-        <v>166004.6382867091</v>
+        <v>165981.4139473265</v>
       </c>
       <c r="J6" t="n">
-        <v>73354.88857455837</v>
+        <v>23738.30009455279</v>
       </c>
       <c r="K6" t="n">
-        <v>184369.3539195486</v>
+        <v>170532.1210123207</v>
       </c>
       <c r="L6" t="n">
-        <v>175421.7428310387</v>
+        <v>184346.1295801659</v>
       </c>
       <c r="M6" t="n">
-        <v>-2421.632690919141</v>
+        <v>49356.18496716247</v>
       </c>
       <c r="N6" t="n">
-        <v>184369.3539195486</v>
+        <v>184346.129580166</v>
       </c>
       <c r="O6" t="n">
-        <v>184369.3539195487</v>
+        <v>184346.129580166</v>
       </c>
       <c r="P6" t="n">
-        <v>184369.3539195486</v>
+        <v>184346.129580166</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314092</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.19970851394</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052314</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825305</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>69.06079487080569</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052314</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825305</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052314</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825305</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>217.330879003769</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>400</v>
-      </c>
-      <c r="C2" t="n">
-        <v>400</v>
-      </c>
-      <c r="D2" t="n">
-        <v>373.8132119411596</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,19 +27540,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27588,22 +27588,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>31.35014361689807</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>225.0803318017079</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>103.8569235685966</v>
+        <v>12.06100714571772</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -27673,16 +27673,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27786,10 +27786,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>145.0586448487568</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>376.5286747343914</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>50.04145816404304</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>108.6434938318043</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,7 +28023,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>103.1553467313941</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,16 +34711,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>479.9987875054302</v>
       </c>
       <c r="P2" t="n">
-        <v>407.1525905495951</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,10 +34793,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>47.47818213854885</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>297.3605050393936</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>640.5448952297621</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>320.0858880793245</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,10 +35173,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>469.6822035600077</v>
       </c>
       <c r="L8" t="n">
-        <v>270.2148169866484</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314092</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314092</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314093</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,13 +35246,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314091</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>288.2218006662717</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314093</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35337,19 +35337,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>257.6774472396105</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35416,16 +35416,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>860.0355415814561</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>706.631711544173</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
@@ -35492,19 +35492,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35653,7 +35653,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>421.9740460140706</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -35662,13 +35662,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,19 +35729,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35896,16 +35896,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>860.0355415814561</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36124,7 +36124,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>955.8742281294894</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -36136,7 +36136,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>706.631711544173</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36686,13 +36686,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>183.4781570095934</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36993,16 +36993,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37312,19 +37312,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1005.515419242839</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37479,7 +37479,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165075</v>
       </c>
       <c r="Q37" t="n">
         <v>169.8916917821539</v>
@@ -37549,10 +37549,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37780,25 +37780,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>753.9218057523913</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -38020,13 +38020,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>866.2895820207518</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>60.59188538505214</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38035,10 +38035,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908061</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960965</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165066</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
